--- a/01 Instagram - Proyectos/Proyecto Mutante/base_consolidada_instagram_mutante_02.xlsx
+++ b/01 Instagram - Proyectos/Proyecto Mutante/base_consolidada_instagram_mutante_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-Codes\BX-Codes\01 Instagram - Proyectos\Proyecto Mutante\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42B3EBA-8249-47A1-AB3F-BB9AB5192B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CF4FEF-F391-4A33-84CB-69BA38C31DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="157">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Que h p s tan intensos. Esta página la manejan venezolanos o qué onda? Contaditos con las manos los decentes que hay. El resto hay que ayudarlos, si. Pero a que se vuelvan a su tierra.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CybApn7sUtj/</t>
   </si>
 </sst>
 </file>
@@ -516,6 +519,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -862,15 +866,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
@@ -1704,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1724,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
         <v>125</v>
@@ -1744,7 +1748,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
         <v>128</v>
@@ -1764,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s">
         <v>131</v>
@@ -1784,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -1804,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
         <v>137</v>
@@ -1824,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
         <v>140</v>
@@ -1844,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
         <v>143</v>
@@ -1864,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
         <v>146</v>
@@ -1884,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
         <v>149</v>
@@ -1904,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
         <v>152</v>
@@ -1924,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
         <v>91</v>
